--- a/N 8658 UG LUKMAN DT BARU.xlsx
+++ b/N 8658 UG LUKMAN DT BARU.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="N 9613 UH" sheetId="1" r:id="rId1"/>
+    <sheet name="N 9613 UH - N 8658 UG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" calcMode="autoNoTable"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Oli Mesin+Filter</t>
+  </si>
+  <si>
+    <t>23/03/2024</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,12 +834,25 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>31776</v>
+      </c>
+      <c r="F12" s="2">
+        <f>E12+5000</f>
+        <v>36776</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
